--- a/DB/DB base model.xlsx
+++ b/DB/DB base model.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="5" rupBuild="4507"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
     <workbookView xWindow="480" yWindow="120" windowWidth="20475" windowHeight="8505"/>
@@ -16,16 +16,12 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="59" uniqueCount="49">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="71" uniqueCount="52">
   <si>
     <t>사용자 DB</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>이름</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>신청List DB</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -38,11 +34,95 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>Place</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Time</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>신청한 장소 (역)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>신청한 시간</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>FK</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>CHAR(20)</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>Name</t>
+    <t>INT</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>채팅창 DB</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>채팅창 번호</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ChatNum</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>채팅창 no.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>채팅창 번호</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>INT</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>PK</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Auto Inc.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>대화내용</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>채팅 내역</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>TABLE</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>대화내용 DB</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>채팅창 no</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ChatNum</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>FK</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>신청지</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -50,23 +130,63 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>어느 장소에 대한 채팅인가</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>신청시간</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>Time</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>신청자 이름</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>신청한 장소 (역)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>신청한 시간</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>FB DB</t>
+    <t>CHAR(20)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>TEXT</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>내용</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Chat</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>대화 내용</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>신청한 시간 (시)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>myPage DB</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>사용자ID</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>userID</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>CHAR(20)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>oAuth</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>get data from oAuth</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -74,99 +194,27 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>CHAR(20)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>INT</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>채팅창 DB</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>채팅창 번호</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ChatNum</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>채팅창 no.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>채팅창 번호</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>INT</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>PK</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Auto Inc.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>대화내용</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>채팅 내역</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>TABLE</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>대화내용 DB</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>채팅창 no</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ChatNum</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>FK</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>신청지</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Place</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>어느 장소에 대한 채팅인가</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>신청시간</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Time</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>CHAR(20)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>FK</t>
+    <t>사용자 아이디</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>누가 보낸 메시지 인가</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>신청자 아이디</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>자기소개</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Introduce</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>자기 자신에 대한 소개글</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -174,51 +222,15 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>누가 보낸 메시지 인가</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>CHAR(20)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>이름</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Name</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>내용</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Chat</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>대화 내용</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>get data from facebook token</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>신청한 시간 (시)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>fixed at 141115</t>
+    <t>fixed at 141116</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -257,7 +269,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -266,6 +278,9 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -356,6 +371,7 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri"/>
@@ -390,6 +406,7 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -565,21 +582,22 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:M23"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:M26"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:F1"/>
+      <selection activeCell="I9" sqref="I9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5"/>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
+    <col min="1" max="1" width="10.625" customWidth="1"/>
     <col min="3" max="3" width="24.625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" s="1" customFormat="1">
+    <row r="1" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A1" s="2" t="s">
-        <v>48</v>
+        <v>51</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="2"/>
@@ -587,226 +605,424 @@
       <c r="E1" s="2"/>
       <c r="F1" s="2"/>
     </row>
-    <row r="3" spans="1:13">
-      <c r="A3" t="s">
+    <row r="2" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A2" s="3"/>
+      <c r="B2" s="3"/>
+      <c r="C2" s="3"/>
+      <c r="D2" s="3"/>
+      <c r="E2" s="3"/>
+      <c r="F2" s="3"/>
+      <c r="G2" s="3"/>
+      <c r="H2" s="3"/>
+      <c r="I2" s="3"/>
+    </row>
+    <row r="3" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A3" s="3" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="4" spans="1:13">
+      <c r="B3" s="3"/>
+      <c r="C3" s="3"/>
+      <c r="D3" s="3"/>
+      <c r="E3" s="3"/>
+      <c r="F3" s="3"/>
+      <c r="G3" s="3"/>
+      <c r="H3" s="3"/>
+      <c r="I3" s="3"/>
+    </row>
+    <row r="4" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A4" s="2" t="s">
-        <v>46</v>
+        <v>42</v>
       </c>
       <c r="B4" s="2"/>
       <c r="C4" s="2"/>
-    </row>
-    <row r="5" spans="1:13">
+      <c r="D4" s="3"/>
+      <c r="E4" s="3"/>
+      <c r="F4" s="3"/>
+      <c r="G4" s="3"/>
+      <c r="H4" s="3"/>
+      <c r="I4" s="3"/>
+    </row>
+    <row r="5" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A5" s="2"/>
       <c r="B5" s="2"/>
       <c r="C5" s="2"/>
-    </row>
-    <row r="7" spans="1:13">
-      <c r="A7" t="s">
+      <c r="D5" s="3"/>
+      <c r="E5" s="3"/>
+      <c r="F5" s="3"/>
+      <c r="G5" s="3"/>
+      <c r="H5" s="3"/>
+      <c r="I5" s="3"/>
+    </row>
+    <row r="6" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A6" s="3"/>
+      <c r="B6" s="3"/>
+      <c r="C6" s="3"/>
+      <c r="D6" s="3"/>
+      <c r="E6" s="3"/>
+      <c r="F6" s="3"/>
+      <c r="G6" s="3"/>
+      <c r="H6" s="3"/>
+      <c r="I6" s="3"/>
+    </row>
+    <row r="7" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A7" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="B7" s="3"/>
+      <c r="C7" s="3"/>
+      <c r="D7" s="3"/>
+      <c r="E7" s="3"/>
+      <c r="F7" s="3"/>
+      <c r="G7" s="3"/>
+      <c r="H7" s="3"/>
+      <c r="I7" s="3"/>
+    </row>
+    <row r="8" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A8" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="B8" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="C8" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="D8" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="E8" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="F8" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="G8" s="3"/>
+      <c r="H8" s="3"/>
+      <c r="I8" s="3"/>
+    </row>
+    <row r="9" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A9" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="B9" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="C9" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="D9" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="E9" s="3"/>
+      <c r="F9" s="3"/>
+      <c r="G9" s="3"/>
+      <c r="H9" s="3"/>
+      <c r="I9" s="3"/>
+    </row>
+    <row r="10" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A10" s="3"/>
+      <c r="B10" s="3"/>
+      <c r="C10" s="3"/>
+      <c r="D10" s="3"/>
+      <c r="E10" s="3"/>
+      <c r="F10" s="3"/>
+      <c r="G10" s="3"/>
+      <c r="H10" s="3"/>
+      <c r="I10" s="3"/>
+    </row>
+    <row r="11" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A11" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="B11" s="3"/>
+      <c r="C11" s="3"/>
+      <c r="D11" s="3"/>
+      <c r="E11" s="3"/>
+      <c r="F11" s="3"/>
+      <c r="G11" s="3"/>
+      <c r="H11" s="3"/>
+      <c r="I11" s="3"/>
+    </row>
+    <row r="12" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A12" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="B12" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="C12" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="D12" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="E12" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="F12" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="G12" s="3"/>
+      <c r="H12" s="3"/>
+      <c r="I12" s="3"/>
+    </row>
+    <row r="13" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A13" s="3" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="8" spans="1:13">
-      <c r="A8" t="s">
-        <v>1</v>
-      </c>
-      <c r="B8" t="s">
+      <c r="B13" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="C13" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="C8" t="s">
+      <c r="D13" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="D8" t="s">
+      <c r="E13" s="3"/>
+      <c r="F13" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="G13" s="3"/>
+      <c r="H13" s="3"/>
+      <c r="I13" s="3"/>
+    </row>
+    <row r="14" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A14" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="B14" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="E8" t="s">
+      <c r="C14" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="D14" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="E14" s="3"/>
+      <c r="F14" s="3"/>
+      <c r="G14" s="3"/>
+      <c r="H14" s="3"/>
+      <c r="I14" s="3"/>
+      <c r="J14" s="1"/>
+      <c r="K14" s="1"/>
+      <c r="L14" s="1"/>
+      <c r="M14" s="1"/>
+    </row>
+    <row r="15" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A15" s="3"/>
+      <c r="B15" s="3"/>
+      <c r="C15" s="3"/>
+      <c r="D15" s="3"/>
+      <c r="E15" s="3"/>
+      <c r="F15" s="3"/>
+      <c r="G15" s="3"/>
+      <c r="H15" s="3"/>
+      <c r="I15" s="3"/>
+    </row>
+    <row r="16" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A16" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="B16" s="3"/>
+      <c r="C16" s="3"/>
+      <c r="D16" s="3"/>
+      <c r="E16" s="3"/>
+      <c r="F16" s="3"/>
+      <c r="G16" s="3"/>
+      <c r="H16" s="3"/>
+      <c r="I16" s="3"/>
+    </row>
+    <row r="17" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A17" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="B17" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="C17" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="D17" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="E17" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="F17" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="G17" s="3"/>
+      <c r="H17" s="3"/>
+      <c r="I17" s="3"/>
+    </row>
+    <row r="18" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A18" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="B18" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="C18" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="D18" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="E18" s="3"/>
+      <c r="F18" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="G18" s="3"/>
+      <c r="H18" s="3"/>
+      <c r="I18" s="3"/>
+    </row>
+    <row r="19" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A19" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="B19" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="C19" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="D19" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="E19" s="3"/>
+      <c r="F19" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="G19" s="3"/>
+      <c r="H19" s="3"/>
+      <c r="I19" s="3"/>
+    </row>
+    <row r="20" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A20" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="B20" s="3"/>
+      <c r="C20" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="D20" s="3"/>
+      <c r="E20" s="3"/>
+      <c r="F20" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="G20" s="3"/>
+      <c r="H20" s="3"/>
+      <c r="I20" s="3"/>
+    </row>
+    <row r="21" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A21" s="3"/>
+      <c r="B21" s="3"/>
+      <c r="C21" s="3"/>
+      <c r="D21" s="3"/>
+      <c r="E21" s="3"/>
+      <c r="F21" s="3"/>
+      <c r="G21" s="3"/>
+      <c r="H21" s="3"/>
+      <c r="I21" s="3"/>
+    </row>
+    <row r="22" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A22" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="B22" s="3"/>
+      <c r="C22" s="3"/>
+      <c r="D22" s="3"/>
+      <c r="E22" s="3"/>
+      <c r="F22" s="3"/>
+      <c r="G22" s="3"/>
+      <c r="H22" s="3"/>
+      <c r="I22" s="3"/>
+    </row>
+    <row r="23" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A23" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="B23" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="C23" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="F8" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="9" spans="1:13">
-      <c r="A9" t="s">
-        <v>3</v>
-      </c>
-      <c r="B9" t="s">
-        <v>7</v>
-      </c>
-      <c r="C9" t="s">
-        <v>10</v>
-      </c>
-      <c r="D9" t="s">
-        <v>14</v>
-      </c>
-      <c r="F9" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="10" spans="1:13">
-      <c r="A10" t="s">
-        <v>4</v>
-      </c>
-      <c r="B10" t="s">
-        <v>8</v>
-      </c>
-      <c r="C10" t="s">
-        <v>11</v>
-      </c>
-      <c r="D10" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="11" spans="1:13">
-      <c r="H11" s="1"/>
-      <c r="I11" s="1"/>
-      <c r="J11" s="1"/>
-      <c r="K11" s="1"/>
-      <c r="L11" s="1"/>
-      <c r="M11" s="1"/>
-    </row>
-    <row r="13" spans="1:13">
-      <c r="A13" t="s">
+      <c r="D23" s="3" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="14" spans="1:13">
-      <c r="A14" t="s">
-        <v>19</v>
-      </c>
-      <c r="B14" t="s">
-        <v>18</v>
-      </c>
-      <c r="C14" t="s">
-        <v>20</v>
-      </c>
-      <c r="D14" t="s">
-        <v>21</v>
-      </c>
-      <c r="E14" t="s">
-        <v>23</v>
-      </c>
-      <c r="F14" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="15" spans="1:13">
-      <c r="A15" t="s">
-        <v>3</v>
-      </c>
-      <c r="B15" t="s">
-        <v>7</v>
-      </c>
-      <c r="C15" t="s">
-        <v>10</v>
-      </c>
-      <c r="D15" t="s">
-        <v>14</v>
-      </c>
-      <c r="F15" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="16" spans="1:13">
-      <c r="A16" t="s">
+      <c r="E23" s="3"/>
+      <c r="F23" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="G23" s="3"/>
+      <c r="H23" s="3"/>
+      <c r="I23" s="3"/>
+    </row>
+    <row r="24" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A24" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="B24" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="C24" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="D24" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="E24" s="3"/>
+      <c r="F24" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="G24" s="3"/>
+      <c r="H24" s="3"/>
+      <c r="I24" s="3"/>
+    </row>
+    <row r="25" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A25" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="B25" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="C25" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="D25" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="E25" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="F25" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="G25" s="3"/>
+      <c r="H25" s="3"/>
+      <c r="I25" s="3"/>
+    </row>
+    <row r="26" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A26" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="B26" s="3" t="s">
         <v>34</v>
       </c>
-      <c r="B16" t="s">
+      <c r="C26" s="3" t="s">
         <v>35</v>
       </c>
-      <c r="C16" t="s">
-        <v>47</v>
-      </c>
-      <c r="D16" t="s">
-        <v>21</v>
-      </c>
-      <c r="F16" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="17" spans="1:6">
-      <c r="A17" t="s">
-        <v>24</v>
-      </c>
-      <c r="C17" t="s">
-        <v>25</v>
-      </c>
-      <c r="F17" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="19" spans="1:6">
-      <c r="A19" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="20" spans="1:6">
-      <c r="A20" t="s">
-        <v>28</v>
-      </c>
-      <c r="B20" t="s">
-        <v>29</v>
-      </c>
-      <c r="C20" t="s">
-        <v>17</v>
-      </c>
-      <c r="D20" t="s">
-        <v>21</v>
-      </c>
-      <c r="F20" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="21" spans="1:6">
-      <c r="A21" t="s">
-        <v>31</v>
-      </c>
-      <c r="B21" t="s">
+      <c r="D26" s="3" t="s">
         <v>32</v>
       </c>
-      <c r="C21" t="s">
-        <v>33</v>
-      </c>
-      <c r="D21" t="s">
-        <v>36</v>
-      </c>
-      <c r="F21" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="22" spans="1:6">
-      <c r="A22" t="s">
-        <v>41</v>
-      </c>
-      <c r="B22" t="s">
-        <v>42</v>
-      </c>
-      <c r="C22" t="s">
-        <v>39</v>
-      </c>
-      <c r="D22" t="s">
-        <v>40</v>
-      </c>
-      <c r="F22" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="23" spans="1:6">
-      <c r="A23" t="s">
-        <v>43</v>
-      </c>
-      <c r="B23" t="s">
-        <v>44</v>
-      </c>
-      <c r="C23" t="s">
-        <v>45</v>
-      </c>
-      <c r="D23" t="s">
-        <v>38</v>
-      </c>
+      <c r="E26" s="3"/>
+      <c r="F26" s="3"/>
+      <c r="G26" s="3"/>
+      <c r="H26" s="3"/>
+      <c r="I26" s="3"/>
     </row>
   </sheetData>
   <mergeCells count="2">
@@ -819,12 +1035,12 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5"/>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <sheetData/>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -832,12 +1048,12 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5"/>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <sheetData/>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
